--- a/raw_data/20200818_saline/20200818_Sensor2_Test_39.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_39.xlsx
@@ -1,1097 +1,1513 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE57D52-98C6-457D-AF29-7111EF6E0666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>34572.633783</v>
+        <v>34572.633782999997</v>
       </c>
       <c r="B2" s="1">
-        <v>9.603509</v>
+        <v>9.6035090000000007</v>
       </c>
       <c r="C2" s="1">
-        <v>1250.170000</v>
+        <v>1250.17</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.908000</v>
+        <v>-308.90800000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>34582.997225</v>
+        <v>34582.997224999999</v>
       </c>
       <c r="G2" s="1">
-        <v>9.606388</v>
+        <v>9.6063880000000008</v>
       </c>
       <c r="H2" s="1">
-        <v>1275.110000</v>
+        <v>1275.1099999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-267.253000</v>
+        <v>-267.25299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>34593.177579</v>
+        <v>34593.177579000003</v>
       </c>
       <c r="L2" s="1">
         <v>9.609216</v>
       </c>
       <c r="M2" s="1">
-        <v>1310.670000</v>
+        <v>1310.67</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.428000</v>
+        <v>-203.428</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>34603.663997</v>
+        <v>34603.663997000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.612129</v>
+        <v>9.6121289999999995</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.460000</v>
+        <v>1322.46</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.495000</v>
+        <v>-185.495</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>34614.239727</v>
       </c>
       <c r="V2" s="1">
-        <v>9.615067</v>
+        <v>9.6150669999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1335.470000</v>
+        <v>1335.47</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.883000</v>
+        <v>-171.88300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>34624.691890</v>
+        <v>34624.691890000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.617970</v>
+        <v>9.6179699999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>1352.980000</v>
+        <v>1352.98</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.618000</v>
+        <v>-169.61799999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>34635.272580</v>
+        <v>34635.272579999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.620909</v>
+        <v>9.6209089999999993</v>
       </c>
       <c r="AG2" s="1">
-        <v>1366.030000</v>
+        <v>1366.03</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.180000</v>
+        <v>-179.18</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>34645.695498</v>
+        <v>34645.695498000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.623804</v>
+        <v>9.6238039999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1386.720000</v>
+        <v>1386.72</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.043000</v>
+        <v>-209.04300000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>34656.200744</v>
+        <v>34656.200744000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.626722</v>
+        <v>9.6267219999999991</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1408.430000</v>
+        <v>1408.43</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.972000</v>
+        <v>-252.97200000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>34667.217881</v>
+        <v>34667.217880999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.629783</v>
+        <v>9.6297829999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1433.040000</v>
+        <v>1433.04</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.915000</v>
+        <v>-312.91500000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>34678.334715</v>
+        <v>34678.334714999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.632871</v>
+        <v>9.6328709999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1452.320000</v>
+        <v>1452.32</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.010000</v>
+        <v>-365.01</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>34689.306716</v>
+        <v>34689.306715999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.635919</v>
+        <v>9.6359189999999995</v>
       </c>
       <c r="BF2" s="1">
-        <v>1537.280000</v>
+        <v>1537.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.858000</v>
+        <v>-613.85799999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>34701.087693</v>
+        <v>34701.087693000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.639191</v>
+        <v>9.6391910000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1691.080000</v>
+        <v>1691.08</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1060.560000</v>
+        <v>-1060.56</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>34711.543358</v>
+        <v>34711.543358000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.642095</v>
+        <v>9.6420949999999994</v>
       </c>
       <c r="BP2" s="1">
-        <v>1984.670000</v>
+        <v>1984.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1835.610000</v>
+        <v>-1835.61</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>34722.727648</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.645202</v>
+        <v>9.6452019999999994</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.390000</v>
+        <v>2369.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2733.870000</v>
+        <v>-2733.87</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>34733.460618</v>
+        <v>34733.460617999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.648184</v>
+        <v>9.6481840000000005</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2854.700000</v>
+        <v>2854.7</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3711.360000</v>
+        <v>-3711.36</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>34744.508963</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.651252</v>
+        <v>9.6512519999999995</v>
       </c>
       <c r="CE2" s="1">
-        <v>4287.350000</v>
+        <v>4287.3500000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6083.440000</v>
+        <v>-6083.44</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>34573.090103</v>
+        <v>34573.090103000002</v>
       </c>
       <c r="B3" s="1">
-        <v>9.603636</v>
+        <v>9.6036359999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1250.280000</v>
+        <v>1250.28</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.721000</v>
+        <v>-308.721</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>34583.418296</v>
+        <v>34583.418296000003</v>
       </c>
       <c r="G3" s="1">
-        <v>9.606505</v>
+        <v>9.6065050000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1275.310000</v>
+        <v>1275.31</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.565000</v>
+        <v>-266.565</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>34593.536716</v>
+        <v>34593.536716000002</v>
       </c>
       <c r="L3" s="1">
-        <v>9.609316</v>
+        <v>9.6093159999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>1310.610000</v>
+        <v>1310.6099999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.546000</v>
+        <v>-203.54599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>34604.045421</v>
+        <v>34604.045421000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.612235</v>
+        <v>9.6122350000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.390000</v>
+        <v>1322.39</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.507000</v>
+        <v>-185.50700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>34614.621651</v>
+        <v>34614.621651000001</v>
       </c>
       <c r="V3" s="1">
-        <v>9.615173</v>
+        <v>9.6151730000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1335.610000</v>
+        <v>1335.61</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.807000</v>
+        <v>-171.80699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>34625.422032</v>
+        <v>34625.422032000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.618173</v>
+        <v>9.6181730000000005</v>
       </c>
       <c r="AB3" s="1">
-        <v>1353.050000</v>
+        <v>1353.05</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.572000</v>
+        <v>-169.572</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>34635.996379</v>
+        <v>34635.996378999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.621110</v>
+        <v>9.6211099999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1365.980000</v>
+        <v>1365.98</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.171000</v>
+        <v>-179.17099999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>34646.036726</v>
+        <v>34646.036725999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.623899</v>
+        <v>9.6238989999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1386.740000</v>
+        <v>1386.74</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.044000</v>
+        <v>-209.04400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>34656.597545</v>
+        <v>34656.597544999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.626833</v>
+        <v>9.6268329999999995</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.956000</v>
+        <v>-252.95599999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>34667.584957</v>
+        <v>34667.584956999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.629885</v>
+        <v>9.6298849999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.924000</v>
+        <v>-312.92399999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>34678.997898</v>
+        <v>34678.997898000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.633055</v>
+        <v>9.6330550000000006</v>
       </c>
       <c r="BA3" s="1">
-        <v>1452.330000</v>
+        <v>1452.33</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.037000</v>
+        <v>-365.03699999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>34690.015995</v>
+        <v>34690.015995000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.636116</v>
+        <v>9.6361159999999995</v>
       </c>
       <c r="BF3" s="1">
-        <v>1537.260000</v>
+        <v>1537.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.845000</v>
+        <v>-613.84500000000003</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>34701.196316</v>
+        <v>34701.196316000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.639221</v>
+        <v>9.6392209999999992</v>
       </c>
       <c r="BK3" s="1">
-        <v>1690.960000</v>
+        <v>1690.96</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1060.660000</v>
+        <v>-1060.6600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>34711.981327</v>
+        <v>34711.981327000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.642217</v>
+        <v>9.6422170000000005</v>
       </c>
       <c r="BP3" s="1">
-        <v>1984.380000</v>
+        <v>1984.38</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1835.850000</v>
+        <v>-1835.85</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>34723.240511</v>
+        <v>34723.240511000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.645345</v>
+        <v>9.6453450000000007</v>
       </c>
       <c r="BU3" s="1">
-        <v>2368.770000</v>
+        <v>2368.77</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2733.480000</v>
+        <v>-2733.48</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>34733.950626</v>
+        <v>34733.950625999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.648320</v>
+        <v>9.64832</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2854.030000</v>
+        <v>2854.03</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3711.590000</v>
+        <v>-3711.59</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>34745.074900</v>
+        <v>34745.0749</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.651410</v>
+        <v>9.6514100000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>4287.650000</v>
+        <v>4287.6499999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6085.450000</v>
+        <v>-6085.45</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>34573.362405</v>
       </c>
       <c r="B4" s="1">
-        <v>9.603712</v>
+        <v>9.6037119999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1250.390000</v>
+        <v>1250.3900000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.939000</v>
+        <v>-308.93900000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>34583.763513</v>
+        <v>34583.763512999998</v>
       </c>
       <c r="G4" s="1">
-        <v>9.606601</v>
+        <v>9.6066009999999995</v>
       </c>
       <c r="H4" s="1">
-        <v>1275.360000</v>
+        <v>1275.3599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.434000</v>
+        <v>-266.43400000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>34593.880411</v>
+        <v>34593.880410999998</v>
       </c>
       <c r="L4" s="1">
-        <v>9.609411</v>
+        <v>9.6094109999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1310.990000</v>
+        <v>1310.99</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.600000</v>
+        <v>-203.6</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>34604.395102</v>
+        <v>34604.395102000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.612332</v>
+        <v>9.6123320000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.450000</v>
+        <v>1322.45</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.454000</v>
+        <v>-185.45400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>34615.306626</v>
+        <v>34615.306625999998</v>
       </c>
       <c r="V4" s="1">
-        <v>9.615363</v>
+        <v>9.6153630000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>1335.670000</v>
+        <v>1335.67</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.879000</v>
+        <v>-171.87899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>34625.770192</v>
+        <v>34625.770192000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.618269</v>
+        <v>9.6182689999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>1353.150000</v>
+        <v>1353.15</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.605000</v>
+        <v>-169.60499999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>34636.336964</v>
+        <v>34636.336964000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.621205</v>
+        <v>9.6212049999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1366.020000</v>
+        <v>1366.02</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.087000</v>
+        <v>-179.08699999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>34646.383961</v>
@@ -1100,2039 +1516,2039 @@
         <v>9.623996</v>
       </c>
       <c r="AL4" s="1">
-        <v>1386.670000</v>
+        <v>1386.67</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.045000</v>
+        <v>-209.04499999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>34656.957639</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.626933</v>
+        <v>9.6269329999999993</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1408.400000</v>
+        <v>1408.4</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.957000</v>
+        <v>-252.95699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>34668.262952</v>
+        <v>34668.262951999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.630073</v>
+        <v>9.6300729999999994</v>
       </c>
       <c r="AV4" s="1">
-        <v>1433.000000</v>
+        <v>1433</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.907000</v>
+        <v>-312.90699999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>34679.408555</v>
+        <v>34679.408555000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.633169</v>
+        <v>9.6331690000000005</v>
       </c>
       <c r="BA4" s="1">
-        <v>1452.300000</v>
+        <v>1452.3</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.028000</v>
+        <v>-365.02800000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>34690.425195</v>
+        <v>34690.425195000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.636229</v>
+        <v>9.6362290000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1537.280000</v>
+        <v>1537.28</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.854000</v>
+        <v>-613.85400000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>34701.569309</v>
+        <v>34701.569308999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.639325</v>
+        <v>9.6393249999999995</v>
       </c>
       <c r="BK4" s="1">
-        <v>1690.940000</v>
+        <v>1690.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1060.660000</v>
+        <v>-1060.6600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>34712.398501</v>
+        <v>34712.398501000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.642333</v>
+        <v>9.6423330000000007</v>
       </c>
       <c r="BP4" s="1">
-        <v>1984.220000</v>
+        <v>1984.22</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1835.960000</v>
+        <v>-1835.96</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>34723.674047</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.645465</v>
+        <v>9.6454649999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.710000</v>
+        <v>2368.71</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2732.840000</v>
+        <v>-2732.84</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>34734.398018</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.648444</v>
+        <v>9.6484439999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.920000</v>
+        <v>2853.92</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3712.380000</v>
+        <v>-3712.38</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>34745.594246</v>
+        <v>34745.594246000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.651554</v>
+        <v>9.6515540000000009</v>
       </c>
       <c r="CE4" s="1">
-        <v>4282.990000</v>
+        <v>4282.99</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6069.040000</v>
+        <v>-6069.04</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>34573.700218</v>
+        <v>34573.700217999998</v>
       </c>
       <c r="B5" s="1">
-        <v>9.603806</v>
+        <v>9.6038060000000005</v>
       </c>
       <c r="C5" s="1">
-        <v>1250.200000</v>
+        <v>1250.2</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.421000</v>
+        <v>-308.42099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>34584.106743</v>
+        <v>34584.106742999997</v>
       </c>
       <c r="G5" s="1">
-        <v>9.606696</v>
+        <v>9.6066959999999995</v>
       </c>
       <c r="H5" s="1">
-        <v>1275.280000</v>
+        <v>1275.28</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.820000</v>
+        <v>-266.82</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>34594.569355</v>
       </c>
       <c r="L5" s="1">
-        <v>9.609603</v>
+        <v>9.6096029999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1310.080000</v>
+        <v>1310.08</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.870000</v>
+        <v>-203.87</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>34605.089537</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.612525</v>
+        <v>9.6125249999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.450000</v>
+        <v>1322.45</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.576000</v>
+        <v>-185.57599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>34615.655311</v>
+        <v>34615.655311000002</v>
       </c>
       <c r="V5" s="1">
-        <v>9.615460</v>
+        <v>9.6154600000000006</v>
       </c>
       <c r="W5" s="1">
-        <v>1335.650000</v>
+        <v>1335.65</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.792000</v>
+        <v>-171.792</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>34626.116924</v>
+        <v>34626.116924000002</v>
       </c>
       <c r="AA5" s="1">
         <v>9.618366</v>
       </c>
       <c r="AB5" s="1">
-        <v>1353.030000</v>
+        <v>1353.03</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.527000</v>
+        <v>-169.52699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>34636.684162</v>
+        <v>34636.684161999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.621301</v>
+        <v>9.6213010000000008</v>
       </c>
       <c r="AG5" s="1">
-        <v>1366.030000</v>
+        <v>1366.03</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.221000</v>
+        <v>-179.221</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>34647.062466</v>
+        <v>34647.062466000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.624184</v>
+        <v>9.6241839999999996</v>
       </c>
       <c r="AL5" s="1">
-        <v>1386.710000</v>
+        <v>1386.71</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.082000</v>
+        <v>-209.08199999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>34657.623302</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.627118</v>
+        <v>9.6271179999999994</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1408.420000</v>
+        <v>1408.42</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.926000</v>
+        <v>-252.92599999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>34668.700423</v>
+        <v>34668.700423000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.630195</v>
+        <v>9.6301950000000005</v>
       </c>
       <c r="AV5" s="1">
-        <v>1433.020000</v>
+        <v>1433.02</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.856000</v>
+        <v>-312.85599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>34679.799932</v>
+        <v>34679.799932000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.633278</v>
+        <v>9.6332780000000007</v>
       </c>
       <c r="BA5" s="1">
-        <v>1452.310000</v>
+        <v>1452.31</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.025000</v>
+        <v>-365.02499999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>34690.783839</v>
+        <v>34690.783839000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.636329</v>
+        <v>9.6363289999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1537.290000</v>
+        <v>1537.29</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.924000</v>
+        <v>-613.92399999999998</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>34701.946268</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.639430</v>
+        <v>9.6394300000000008</v>
       </c>
       <c r="BK5" s="1">
-        <v>1690.880000</v>
+        <v>1690.88</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1060.600000</v>
+        <v>-1060.5999999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>34712.821550</v>
+        <v>34712.821550000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.642450</v>
+        <v>9.6424500000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1984.210000</v>
+        <v>1984.21</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1835.860000</v>
+        <v>-1835.86</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>34724.111982</v>
+        <v>34724.111982000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.645587</v>
+        <v>9.6455870000000008</v>
       </c>
       <c r="BU5" s="1">
-        <v>2368.240000</v>
+        <v>2368.2399999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2732.440000</v>
+        <v>-2732.44</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>34734.818160</v>
+        <v>34734.818160000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.648561</v>
+        <v>9.6485610000000008</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2854.480000</v>
+        <v>2854.48</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3711.920000</v>
+        <v>-3711.92</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>34746.112530</v>
+        <v>34746.112529999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.651698</v>
+        <v>9.6516979999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>4267.520000</v>
+        <v>4267.5200000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6072.890000</v>
+        <v>-6072.89</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>34574.383172</v>
+        <v>34574.383172000002</v>
       </c>
       <c r="B6" s="1">
-        <v>9.603995</v>
+        <v>9.6039949999999994</v>
       </c>
       <c r="C6" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.450000</v>
+        <v>-308.45</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>34584.796183</v>
+        <v>34584.796182999999</v>
       </c>
       <c r="G6" s="1">
-        <v>9.606888</v>
+        <v>9.6068879999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>1275.350000</v>
+        <v>1275.3499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.548000</v>
+        <v>-266.548</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>34594.915562</v>
+        <v>34594.915562000002</v>
       </c>
       <c r="L6" s="1">
-        <v>9.609699</v>
+        <v>9.6096990000000009</v>
       </c>
       <c r="M6" s="1">
-        <v>1310.510000</v>
+        <v>1310.51</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.644000</v>
+        <v>-203.64400000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>34605.442155</v>
+        <v>34605.442154999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.612623</v>
+        <v>9.6126229999999993</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.633000</v>
+        <v>-185.63300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>34615.995533</v>
+        <v>34615.995533000001</v>
       </c>
       <c r="V6" s="1">
-        <v>9.615554</v>
+        <v>9.6155539999999995</v>
       </c>
       <c r="W6" s="1">
-        <v>1335.710000</v>
+        <v>1335.71</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.864000</v>
+        <v>-171.864</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>34626.789502</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.618553</v>
+        <v>9.6185530000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>1353.090000</v>
+        <v>1353.09</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.608000</v>
+        <v>-169.608</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>34637.330946</v>
+        <v>34637.330946000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.621481</v>
+        <v>9.6214809999999993</v>
       </c>
       <c r="AG6" s="1">
-        <v>1366.060000</v>
+        <v>1366.06</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.156000</v>
+        <v>-179.15600000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>34647.430485</v>
+        <v>34647.430484999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.624286</v>
+        <v>9.6242859999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>1386.730000</v>
+        <v>1386.73</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.117000</v>
+        <v>-209.11699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>34658.036437</v>
+        <v>34658.036437000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.627232</v>
+        <v>9.6272319999999993</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.890000</v>
+        <v>-252.89</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>34669.063992</v>
+        <v>34669.063992000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.630296</v>
+        <v>9.6302959999999995</v>
       </c>
       <c r="AV6" s="1">
-        <v>1433.020000</v>
+        <v>1433.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>34680.179832</v>
+        <v>34680.179832000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.633383</v>
+        <v>9.6333830000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1452.240000</v>
+        <v>1452.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.009000</v>
+        <v>-365.00900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>34691.147885</v>
+        <v>34691.147884999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.636430</v>
+        <v>9.6364300000000007</v>
       </c>
       <c r="BF6" s="1">
-        <v>1537.220000</v>
+        <v>1537.22</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.878000</v>
+        <v>-613.87800000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>34702.367868</v>
+        <v>34702.367868000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.639547</v>
+        <v>9.6395470000000003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1690.930000</v>
+        <v>1690.93</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1060.580000</v>
+        <v>-1060.58</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>34713.220865</v>
+        <v>34713.220865000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.642561</v>
+        <v>9.6425610000000006</v>
       </c>
       <c r="BP6" s="1">
-        <v>1984.210000</v>
+        <v>1984.21</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1835.920000</v>
+        <v>-1835.92</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>34724.514771</v>
+        <v>34724.514771000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.645699</v>
+        <v>9.6456990000000005</v>
       </c>
       <c r="BU6" s="1">
-        <v>2368.010000</v>
+        <v>2368.0100000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2731.810000</v>
+        <v>-2731.81</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>34735.238768</v>
+        <v>34735.238768000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.648677</v>
+        <v>9.6486769999999993</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.740000</v>
+        <v>2853.74</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3712.010000</v>
+        <v>-3712.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>34746.629858</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.651842</v>
+        <v>9.6518420000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>4271.540000</v>
+        <v>4271.54</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6086.880000</v>
+        <v>-6086.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>34574.723429</v>
+        <v>34574.723428999998</v>
       </c>
       <c r="B7" s="1">
-        <v>9.604090</v>
+        <v>9.6040899999999993</v>
       </c>
       <c r="C7" s="1">
-        <v>1250.370000</v>
+        <v>1250.3699999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.606000</v>
+        <v>-308.60599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>34585.140903</v>
       </c>
       <c r="G7" s="1">
-        <v>9.606984</v>
+        <v>9.6069840000000006</v>
       </c>
       <c r="H7" s="1">
-        <v>1276.170000</v>
+        <v>1276.17</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.715000</v>
+        <v>-265.71499999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>34595.262793</v>
+        <v>34595.262793000002</v>
       </c>
       <c r="L7" s="1">
-        <v>9.609795</v>
+        <v>9.6097950000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1310.330000</v>
+        <v>1310.33</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.603000</v>
+        <v>-203.60300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>34605.790843</v>
+        <v>34605.790843000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.612720</v>
+        <v>9.6127199999999995</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.370000</v>
+        <v>1322.37</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.577000</v>
+        <v>-185.577</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>34616.647785</v>
+        <v>34616.647785000001</v>
       </c>
       <c r="V7" s="1">
-        <v>9.615735</v>
+        <v>9.6157350000000008</v>
       </c>
       <c r="W7" s="1">
-        <v>1335.650000</v>
+        <v>1335.65</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.873000</v>
+        <v>-171.87299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>34627.163455</v>
+        <v>34627.163455000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.618657</v>
+        <v>9.6186570000000007</v>
       </c>
       <c r="AB7" s="1">
-        <v>1353.080000</v>
+        <v>1353.08</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.659000</v>
+        <v>-169.65899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>34637.711872</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.621587</v>
+        <v>9.6215869999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1366.080000</v>
+        <v>1366.08</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.110000</v>
+        <v>-179.11</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>34647.778676</v>
+        <v>34647.778676000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.624383</v>
+        <v>9.6243829999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1386.710000</v>
+        <v>1386.71</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.057000</v>
+        <v>-209.05699999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>34658.423845</v>
+        <v>34658.423844999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.627340</v>
+        <v>9.6273400000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1408.420000</v>
+        <v>1408.42</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.932000</v>
+        <v>-252.93199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>34669.429544</v>
+        <v>34669.429543999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.630397</v>
+        <v>9.6303970000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1433.000000</v>
+        <v>1433</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.874000</v>
+        <v>-312.87400000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>34680.600937</v>
+        <v>34680.600937000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.633500</v>
+        <v>9.6334999999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1452.320000</v>
+        <v>1452.32</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.032000</v>
+        <v>-365.03199999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>34691.873054</v>
+        <v>34691.873054000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.636631</v>
+        <v>9.6366309999999995</v>
       </c>
       <c r="BF7" s="1">
-        <v>1537.280000</v>
+        <v>1537.28</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.831000</v>
+        <v>-613.83100000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>34702.694762</v>
+        <v>34702.694761999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.639637</v>
+        <v>9.6396370000000005</v>
       </c>
       <c r="BK7" s="1">
-        <v>1690.800000</v>
+        <v>1690.8</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1060.650000</v>
+        <v>-1060.6500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>34713.617132</v>
+        <v>34713.617131999999</v>
       </c>
       <c r="BO7" s="1">
         <v>9.642671</v>
       </c>
       <c r="BP7" s="1">
-        <v>1984.170000</v>
+        <v>1984.17</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1835.760000</v>
+        <v>-1835.76</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>34724.950754</v>
+        <v>34724.950753999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.645820</v>
+        <v>9.6458200000000005</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.220000</v>
+        <v>2368.2199999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2731.400000</v>
+        <v>-2731.4</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>34735.666818</v>
+        <v>34735.666817999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.648796</v>
+        <v>9.6487960000000008</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.660000</v>
+        <v>2853.66</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3711.630000</v>
+        <v>-3711.63</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>34747.148208</v>
+        <v>34747.148207999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.651986</v>
+        <v>9.6519860000000008</v>
       </c>
       <c r="CE7" s="1">
-        <v>4284.220000</v>
+        <v>4284.22</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6081.500000</v>
+        <v>-6081.5</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>34575.067156</v>
+        <v>34575.067155999997</v>
       </c>
       <c r="B8" s="1">
-        <v>9.604185</v>
+        <v>9.6041849999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>1250.150000</v>
+        <v>1250.1500000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.777000</v>
+        <v>-308.77699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>34585.483639</v>
+        <v>34585.483638999998</v>
       </c>
       <c r="G8" s="1">
-        <v>9.607079</v>
+        <v>9.6070790000000006</v>
       </c>
       <c r="H8" s="1">
-        <v>1275.220000</v>
+        <v>1275.22</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.196000</v>
+        <v>-266.19600000000003</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>34595.915496</v>
+        <v>34595.915496000001</v>
       </c>
       <c r="L8" s="1">
-        <v>9.609977</v>
+        <v>9.6099770000000007</v>
       </c>
       <c r="M8" s="1">
-        <v>1310.620000</v>
+        <v>1310.6199999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.853000</v>
+        <v>-203.85300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>34606.454988</v>
+        <v>34606.454987999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.612904</v>
+        <v>9.6129040000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.462000</v>
+        <v>-185.46199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>34617.024237</v>
+        <v>34617.024236999998</v>
       </c>
       <c r="V8" s="1">
-        <v>9.615840</v>
+        <v>9.6158400000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1335.730000</v>
+        <v>1335.73</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.868000</v>
+        <v>-171.86799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>34627.515615</v>
+        <v>34627.515614999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.618754</v>
+        <v>9.6187539999999991</v>
       </c>
       <c r="AB8" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.305000</v>
+        <v>-169.30500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>34638.058609</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.621683</v>
+        <v>9.6216830000000009</v>
       </c>
       <c r="AG8" s="1">
-        <v>1366.000000</v>
+        <v>1366</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.096000</v>
+        <v>-179.096</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>34648.126899</v>
+        <v>34648.126899000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.624480</v>
+        <v>9.6244800000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1386.730000</v>
+        <v>1386.73</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.085000</v>
+        <v>-209.08500000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>34658.841940</v>
+        <v>34658.841939999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.627456</v>
+        <v>9.6274560000000005</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.937000</v>
+        <v>-252.93700000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>34669.858087</v>
+        <v>34669.858087000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.630516</v>
+        <v>9.6305160000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1433.000000</v>
+        <v>1433</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.852000</v>
+        <v>-312.85199999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>34680.897584</v>
+        <v>34680.897583999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.633583</v>
+        <v>9.6335829999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1452.270000</v>
+        <v>1452.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.060000</v>
+        <v>-365.06</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>34692.249976</v>
+        <v>34692.249975999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.636736</v>
+        <v>9.6367360000000009</v>
       </c>
       <c r="BF8" s="1">
-        <v>1537.270000</v>
+        <v>1537.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.893000</v>
+        <v>-613.89300000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>34703.097979</v>
+        <v>34703.097978999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.639749</v>
+        <v>9.6397490000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1690.940000</v>
+        <v>1690.94</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1060.560000</v>
+        <v>-1060.56</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>34714.038266</v>
+        <v>34714.038266000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.642788</v>
+        <v>9.6427879999999995</v>
       </c>
       <c r="BP8" s="1">
-        <v>1984.110000</v>
+        <v>1984.11</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1835.850000</v>
+        <v>-1835.85</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>34725.696701</v>
+        <v>34725.696701000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.646027</v>
+        <v>9.6460270000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.490000</v>
+        <v>2368.4899999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2730.670000</v>
+        <v>-2730.67</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>34736.092386</v>
+        <v>34736.092385999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.648915</v>
+        <v>9.6489150000000006</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2853.490000</v>
+        <v>2853.49</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3711.780000</v>
+        <v>-3711.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>34747.666992</v>
+        <v>34747.666991999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.652130</v>
+        <v>9.6521299999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>4277.020000</v>
+        <v>4277.0200000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6069.020000</v>
+        <v>-6069.02</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>34575.723362</v>
+        <v>34575.723361999997</v>
       </c>
       <c r="B9" s="1">
-        <v>9.604368</v>
+        <v>9.6043679999999991</v>
       </c>
       <c r="C9" s="1">
-        <v>1250.180000</v>
+        <v>1250.18</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.451000</v>
+        <v>-308.45100000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>34586.134165</v>
+        <v>34586.134165000003</v>
       </c>
       <c r="G9" s="1">
-        <v>9.607259</v>
+        <v>9.6072590000000009</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.960000</v>
+        <v>1274.96</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.218000</v>
+        <v>-266.21800000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>34596.300097</v>
+        <v>34596.300096999999</v>
       </c>
       <c r="L9" s="1">
-        <v>9.610083</v>
+        <v>9.6100829999999995</v>
       </c>
       <c r="M9" s="1">
-        <v>1310.380000</v>
+        <v>1310.3800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.831000</v>
+        <v>-203.83099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>34606.832442</v>
+        <v>34606.832441999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.613009</v>
+        <v>9.6130089999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.500000</v>
+        <v>1322.5</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.389000</v>
+        <v>-185.38900000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>34617.371436</v>
+        <v>34617.371436000001</v>
       </c>
       <c r="V9" s="1">
-        <v>9.615937</v>
+        <v>9.6159370000000006</v>
       </c>
       <c r="W9" s="1">
-        <v>1335.870000</v>
+        <v>1335.87</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.898000</v>
+        <v>-171.898</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>34627.863309</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.618851</v>
+        <v>9.6188509999999994</v>
       </c>
       <c r="AB9" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.421000</v>
+        <v>-169.42099999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>34638.402799</v>
+        <v>34638.402799000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.621779</v>
+        <v>9.6217790000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1366.050000</v>
+        <v>1366.05</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.125000</v>
+        <v>-179.125</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>34648.555906</v>
+        <v>34648.555906000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.624599</v>
+        <v>9.6245989999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1386.730000</v>
+        <v>1386.73</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.032000</v>
+        <v>-209.03200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>34659.143509</v>
+        <v>34659.143509000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.627540</v>
+        <v>9.6275399999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1408.410000</v>
+        <v>1408.41</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.920000</v>
+        <v>-252.92</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>34670.158193</v>
+        <v>34670.158193000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.630599</v>
+        <v>9.6305990000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.860000</v>
+        <v>-312.86</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>34681.254169</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.633682</v>
+        <v>9.6336820000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1452.300000</v>
+        <v>1452.3</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.055000</v>
+        <v>-365.05500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>34692.613081</v>
+        <v>34692.613081000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.636837</v>
+        <v>9.6368369999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1537.260000</v>
+        <v>1537.26</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.840000</v>
+        <v>-613.84</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>34703.471993</v>
+        <v>34703.471992999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.639853</v>
+        <v>9.6398530000000004</v>
       </c>
       <c r="BK9" s="1">
-        <v>1690.900000</v>
+        <v>1690.9</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1060.650000</v>
+        <v>-1060.6500000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>34714.855146</v>
+        <v>34714.855146000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.643015</v>
+        <v>9.6430150000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1984.030000</v>
+        <v>1984.03</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1835.670000</v>
+        <v>-1835.67</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>34725.809789</v>
+        <v>34725.809788999999</v>
       </c>
       <c r="BT9" s="1">
         <v>9.646058</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.870000</v>
+        <v>2368.87</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2730.170000</v>
+        <v>-2730.17</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>34736.531310</v>
+        <v>34736.531309999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.649036</v>
+        <v>9.6490360000000006</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2853.730000</v>
+        <v>2853.73</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3711.540000</v>
+        <v>-3711.54</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>34748.187294</v>
+        <v>34748.187294000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.652274</v>
+        <v>9.6522740000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4284.650000</v>
+        <v>4284.6499999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6069.720000</v>
+        <v>-6069.72</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>34576.087922</v>
+        <v>34576.087921999999</v>
       </c>
       <c r="B10" s="1">
-        <v>9.604469</v>
+        <v>9.6044689999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1250.310000</v>
+        <v>1250.31</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.728000</v>
+        <v>-308.72800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>34586.518292</v>
+        <v>34586.518292000001</v>
       </c>
       <c r="G10" s="1">
-        <v>9.607366</v>
+        <v>9.6073660000000007</v>
       </c>
       <c r="H10" s="1">
-        <v>1276.080000</v>
+        <v>1276.08</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.536000</v>
+        <v>-266.536</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>34596.642168</v>
+        <v>34596.642167999998</v>
       </c>
       <c r="L10" s="1">
-        <v>9.610178</v>
+        <v>9.6101779999999994</v>
       </c>
       <c r="M10" s="1">
-        <v>1310.470000</v>
+        <v>1310.47</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.148000</v>
+        <v>-204.148</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>34607.181160</v>
+        <v>34607.18116</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.613106</v>
+        <v>9.6131060000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.520000</v>
+        <v>1322.52</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.500000</v>
+        <v>-185.5</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>34617.717643</v>
+        <v>34617.717643000004</v>
       </c>
       <c r="V10" s="1">
-        <v>9.616033</v>
+        <v>9.6160329999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1335.750000</v>
+        <v>1335.75</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.782000</v>
+        <v>-171.78200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>34628.287885</v>
+        <v>34628.287884999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.618969</v>
+        <v>9.6189689999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1352.800000</v>
+        <v>1352.8</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.574000</v>
+        <v>-169.57400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>34638.820929</v>
+        <v>34638.820929000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.621895</v>
+        <v>9.6218950000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>1366.070000</v>
+        <v>1366.07</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.060000</v>
+        <v>-179.06</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>34648.828706</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.624675</v>
+        <v>9.6246749999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1386.740000</v>
+        <v>1386.74</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.050000</v>
+        <v>-209.05</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>34659.503109</v>
+        <v>34659.503108999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.627640</v>
+        <v>9.6276399999999995</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1408.430000</v>
+        <v>1408.43</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.926000</v>
+        <v>-252.92599999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>34670.523253</v>
+        <v>34670.523252999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.630701</v>
+        <v>9.6307010000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.980000</v>
+        <v>1432.98</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.854000</v>
+        <v>-312.85399999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>34681.614793</v>
+        <v>34681.614793000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.633782</v>
+        <v>9.6337820000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1452.340000</v>
+        <v>1452.34</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.021000</v>
+        <v>-365.02100000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>34693.332775</v>
+        <v>34693.332775000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.637037</v>
+        <v>9.6370369999999994</v>
       </c>
       <c r="BF10" s="1">
-        <v>1537.280000</v>
+        <v>1537.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.822000</v>
+        <v>-613.822</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>34704.223897</v>
+        <v>34704.223897000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.640062</v>
+        <v>9.6400620000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1690.850000</v>
+        <v>1690.85</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1060.620000</v>
+        <v>-1060.6199999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>34715.272780</v>
+        <v>34715.272779999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.643131</v>
+        <v>9.6431310000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1984.130000</v>
+        <v>1984.13</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1835.720000</v>
+        <v>-1835.72</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>34726.226429</v>
+        <v>34726.226429000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.646174</v>
+        <v>9.6461740000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2369.060000</v>
+        <v>2369.06</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2729.480000</v>
+        <v>-2729.48</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>34736.953407</v>
+        <v>34736.953407000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.649154</v>
+        <v>9.6491539999999993</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.440000</v>
+        <v>2853.44</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3711.050000</v>
+        <v>-3711.05</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>34749.044383</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.652512</v>
+        <v>9.6525119999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4283.660000</v>
+        <v>4283.66</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6082.400000</v>
+        <v>-6082.4</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>34576.435154</v>
+        <v>34576.435153999999</v>
       </c>
       <c r="B11" s="1">
-        <v>9.604565</v>
+        <v>9.6045649999999991</v>
       </c>
       <c r="C11" s="1">
-        <v>1250.160000</v>
+        <v>1250.1600000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.470000</v>
+        <v>-308.47000000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>34586.862051</v>
+        <v>34586.862050999996</v>
       </c>
       <c r="G11" s="1">
-        <v>9.607462</v>
+        <v>9.6074619999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1275.670000</v>
+        <v>1275.67</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.886000</v>
+        <v>-265.88600000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>34596.990823</v>
       </c>
       <c r="L11" s="1">
-        <v>9.610275</v>
+        <v>9.6102749999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1310.680000</v>
+        <v>1310.68</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.945000</v>
+        <v>-203.94499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>34607.604216</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.613223</v>
+        <v>9.6132229999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.470000</v>
+        <v>1322.47</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.467000</v>
+        <v>-185.46700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>34618.143243</v>
+        <v>34618.143242999999</v>
       </c>
       <c r="V11" s="1">
-        <v>9.616151</v>
+        <v>9.6161510000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>1335.700000</v>
+        <v>1335.7</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.853000</v>
+        <v>-171.85300000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>34628.566669</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.619046</v>
+        <v>9.6190460000000009</v>
       </c>
       <c r="AB11" s="1">
-        <v>1353.240000</v>
+        <v>1353.24</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.508000</v>
+        <v>-169.50800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>34639.112782</v>
+        <v>34639.112781999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.621976</v>
+        <v>9.6219760000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1366.050000</v>
+        <v>1366.05</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.158000</v>
+        <v>-179.15799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>34649.176897</v>
+        <v>34649.176896999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.624771</v>
+        <v>9.6247710000000009</v>
       </c>
       <c r="AL11" s="1">
-        <v>1386.720000</v>
+        <v>1386.72</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.066000</v>
+        <v>-209.066</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>34659.865188</v>
+        <v>34659.865188000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.627740</v>
+        <v>9.6277399999999993</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.901000</v>
+        <v>-252.90100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>34670.883814</v>
+        <v>34670.883814000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.630801</v>
+        <v>9.6308009999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1433.000000</v>
+        <v>1433</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.801000</v>
+        <v>-312.80099999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>34682.331477</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.633981</v>
+        <v>9.6339810000000003</v>
       </c>
       <c r="BA11" s="1">
-        <v>1452.310000</v>
+        <v>1452.31</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>34693.724101</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.637146</v>
+        <v>9.6371459999999995</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.850000</v>
+        <v>-613.85</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>34704.599400</v>
+        <v>34704.599399999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.640166</v>
+        <v>9.6401660000000007</v>
       </c>
       <c r="BK11" s="1">
-        <v>1690.900000</v>
+        <v>1690.9</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1060.570000</v>
+        <v>-1060.57</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>34715.670110</v>
+        <v>34715.670109999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.643242</v>
+        <v>9.6432420000000008</v>
       </c>
       <c r="BP11" s="1">
-        <v>1984.070000</v>
+        <v>1984.07</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1835.820000</v>
+        <v>-1835.82</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>34726.960506</v>
+        <v>34726.960506000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.646378</v>
+        <v>9.6463780000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2369.720000</v>
+        <v>2369.7199999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2729.420000</v>
+        <v>-2729.42</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>34737.681067</v>
+        <v>34737.681066999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.649356</v>
+        <v>9.6493559999999992</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.320000</v>
+        <v>2853.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3711.050000</v>
+        <v>-3711.05</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>34749.268104</v>
+        <v>34749.268104000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.652574</v>
+        <v>9.6525739999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>4277.850000</v>
+        <v>4277.8500000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6068.960000</v>
+        <v>-6068.96</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>34576.775413</v>
+        <v>34576.775413000003</v>
       </c>
       <c r="B12" s="1">
-        <v>9.604660</v>
+        <v>9.6046600000000009</v>
       </c>
       <c r="C12" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.692000</v>
+        <v>-308.69200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>34587.208724</v>
+        <v>34587.208723999996</v>
       </c>
       <c r="G12" s="1">
-        <v>9.607558</v>
+        <v>9.6075579999999992</v>
       </c>
       <c r="H12" s="1">
-        <v>1275.620000</v>
+        <v>1275.6199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.887000</v>
+        <v>-266.887</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>34597.414902</v>
+        <v>34597.414901999997</v>
       </c>
       <c r="L12" s="1">
-        <v>9.610393</v>
+        <v>9.6103930000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1310.510000</v>
+        <v>1310.51</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.646000</v>
+        <v>-203.64599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>34607.882281</v>
+        <v>34607.882280999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.613301</v>
+        <v>9.6133009999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.470000</v>
+        <v>1322.47</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.559000</v>
+        <v>-185.559</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>34618.422954</v>
+        <v>34618.422954000001</v>
       </c>
       <c r="V12" s="1">
-        <v>9.616229</v>
+        <v>9.6162290000000006</v>
       </c>
       <c r="W12" s="1">
-        <v>1335.690000</v>
+        <v>1335.69</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.898000</v>
+        <v>-171.898</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>34628.914331</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.619143</v>
+        <v>9.6191429999999993</v>
       </c>
       <c r="AB12" s="1">
-        <v>1353.050000</v>
+        <v>1353.05</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.580000</v>
+        <v>-169.58</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>34639.457295</v>
@@ -3141,2386 +3557,2386 @@
         <v>9.622071</v>
       </c>
       <c r="AG12" s="1">
-        <v>1366.060000</v>
+        <v>1366.06</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.087000</v>
+        <v>-179.08699999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>34649.523142</v>
+        <v>34649.523141999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.624868</v>
+        <v>9.6248679999999993</v>
       </c>
       <c r="AL12" s="1">
-        <v>1386.730000</v>
+        <v>1386.73</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.053000</v>
+        <v>-209.053</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>34660.581447</v>
+        <v>34660.581446999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.627939</v>
+        <v>9.6279389999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1408.400000</v>
+        <v>1408.4</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.899000</v>
+        <v>-252.899</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>34671.617893</v>
+        <v>34671.617893000002</v>
       </c>
       <c r="AU12" s="1">
         <v>9.631005</v>
       </c>
       <c r="AV12" s="1">
-        <v>1433.030000</v>
+        <v>1433.03</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.809000</v>
+        <v>-312.80900000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>34682.692069</v>
+        <v>34682.692068999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.634081</v>
+        <v>9.6340810000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1452.300000</v>
+        <v>1452.3</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.056000</v>
+        <v>-365.05599999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>34694.102037</v>
+        <v>34694.102036999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.637251</v>
+        <v>9.6372509999999991</v>
       </c>
       <c r="BF12" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.884000</v>
+        <v>-613.88400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>34704.973588</v>
+        <v>34704.973588000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.640270</v>
+        <v>9.6402699999999992</v>
       </c>
       <c r="BK12" s="1">
-        <v>1690.900000</v>
+        <v>1690.9</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1060.630000</v>
+        <v>-1060.6300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>34716.409610</v>
+        <v>34716.409610000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.643447</v>
+        <v>9.6434470000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1983.990000</v>
+        <v>1983.99</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1835.800000</v>
+        <v>-1835.8</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>34727.099921</v>
+        <v>34727.099921000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.646417</v>
+        <v>9.6464169999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>2370.290000</v>
+        <v>2370.29</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2728.980000</v>
+        <v>-2728.98</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>34737.857147</v>
+        <v>34737.857147000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.649405</v>
+        <v>9.6494049999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.980000</v>
+        <v>2852.98</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3712.310000</v>
+        <v>-3712.31</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>34749.785408</v>
+        <v>34749.785408000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.652718</v>
+        <v>9.6527180000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4263.820000</v>
+        <v>4263.82</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6075.830000</v>
+        <v>-6075.83</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>34577.204418</v>
+        <v>34577.204418000001</v>
       </c>
       <c r="B13" s="1">
-        <v>9.604779</v>
+        <v>9.6047790000000006</v>
       </c>
       <c r="C13" s="1">
-        <v>1250.230000</v>
+        <v>1250.23</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.823000</v>
+        <v>-308.82299999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>34587.633300</v>
+        <v>34587.633300000001</v>
       </c>
       <c r="G13" s="1">
-        <v>9.607676</v>
+        <v>9.6076759999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1275.990000</v>
+        <v>1275.99</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.510000</v>
+        <v>-266.51</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>34597.691173</v>
+        <v>34597.691172999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.610470</v>
+        <v>9.6104699999999994</v>
       </c>
       <c r="M13" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.352000</v>
+        <v>-203.352</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>34608.232648</v>
+        <v>34608.232647999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.613398</v>
+        <v>9.6133980000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.440000</v>
+        <v>1322.44</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.481000</v>
+        <v>-185.48099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>34618.764917</v>
       </c>
       <c r="V13" s="1">
-        <v>9.616324</v>
+        <v>9.6163240000000005</v>
       </c>
       <c r="W13" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.860000</v>
+        <v>-171.86</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>34629.265526</v>
+        <v>34629.265526000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.619240</v>
+        <v>9.6192399999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>1353.090000</v>
+        <v>1353.09</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.558000</v>
+        <v>-169.55799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>34639.803998</v>
+        <v>34639.803998000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.622168</v>
+        <v>9.6221680000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>1366.080000</v>
+        <v>1366.08</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.151000</v>
+        <v>-179.15100000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>34650.226432</v>
+        <v>34650.226432000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.625063</v>
+        <v>9.6250630000000008</v>
       </c>
       <c r="AL13" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.061000</v>
+        <v>-209.06100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>34660.941047</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.628039</v>
+        <v>9.6280389999999993</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.895000</v>
+        <v>-252.89500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>34671.982451</v>
+        <v>34671.982451000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.631106</v>
+        <v>9.6311060000000008</v>
       </c>
       <c r="AV13" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.816000</v>
+        <v>-312.81599999999997</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>34683.049718</v>
+        <v>34683.049718000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.634180</v>
+        <v>9.6341800000000006</v>
       </c>
       <c r="BA13" s="1">
-        <v>1452.310000</v>
+        <v>1452.31</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.050000</v>
+        <v>-365.05</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>34694.771173</v>
+        <v>34694.771173000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.637436</v>
+        <v>9.6374359999999992</v>
       </c>
       <c r="BF13" s="1">
-        <v>1537.270000</v>
+        <v>1537.27</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.862000</v>
+        <v>-613.86199999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>34705.658823</v>
+        <v>34705.658822999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.640461</v>
+        <v>9.6404610000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1690.880000</v>
+        <v>1690.88</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1060.550000</v>
+        <v>-1060.55</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>34716.920985</v>
+        <v>34716.920984999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.643589</v>
+        <v>9.6435890000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1984.120000</v>
+        <v>1984.12</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1835.710000</v>
+        <v>-1835.71</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>34727.512593</v>
+        <v>34727.512592999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.646531</v>
+        <v>9.6465309999999995</v>
       </c>
       <c r="BU13" s="1">
-        <v>2370.830000</v>
+        <v>2370.83</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2729.150000</v>
+        <v>-2729.15</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>34738.280203</v>
+        <v>34738.280203000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.649522</v>
+        <v>9.6495219999999993</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.710000</v>
+        <v>2852.71</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3711.910000</v>
+        <v>-3711.91</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>34750.304716</v>
+        <v>34750.304715999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.652862</v>
+        <v>9.6528620000000007</v>
       </c>
       <c r="CE13" s="1">
-        <v>4271.460000</v>
+        <v>4271.46</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6091.110000</v>
+        <v>-6091.11</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>34577.475759</v>
+        <v>34577.475759000001</v>
       </c>
       <c r="B14" s="1">
-        <v>9.604854</v>
+        <v>9.6048539999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.258000</v>
+        <v>-308.25799999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>34587.910594</v>
+        <v>34587.910594000001</v>
       </c>
       <c r="G14" s="1">
-        <v>9.607753</v>
+        <v>9.6077530000000007</v>
       </c>
       <c r="H14" s="1">
-        <v>1275.710000</v>
+        <v>1275.71</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.901000</v>
+        <v>-266.90100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>34598.038870</v>
+        <v>34598.038869999997</v>
       </c>
       <c r="L14" s="1">
-        <v>9.610566</v>
+        <v>9.6105660000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1310.370000</v>
+        <v>1310.3699999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.551000</v>
+        <v>-203.55099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>34608.582328</v>
+        <v>34608.582327999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.613495</v>
+        <v>9.6134950000000003</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.400000</v>
+        <v>1322.4</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.468000</v>
+        <v>-185.46799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>34619.106441</v>
+        <v>34619.106441000004</v>
       </c>
       <c r="V14" s="1">
-        <v>9.616418</v>
+        <v>9.6164179999999995</v>
       </c>
       <c r="W14" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.883000</v>
+        <v>-171.88300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>34629.959900</v>
+        <v>34629.959900000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.619433</v>
+        <v>9.6194330000000008</v>
       </c>
       <c r="AB14" s="1">
-        <v>1352.880000</v>
+        <v>1352.88</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.583000</v>
+        <v>-169.583</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>34640.487486</v>
+        <v>34640.487485999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.622358</v>
+        <v>9.6223580000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1366.030000</v>
+        <v>1366.03</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.070000</v>
+        <v>-179.07</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34650.570160</v>
+        <v>34650.570160000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.625158</v>
+        <v>9.6251580000000008</v>
       </c>
       <c r="AL14" s="1">
-        <v>1386.730000</v>
+        <v>1386.73</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.034000</v>
+        <v>-209.03399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>34661.302594</v>
+        <v>34661.302594000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.628140</v>
+        <v>9.6281400000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1408.470000</v>
+        <v>1408.47</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.918000</v>
+        <v>-252.91800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>34672.347012</v>
+        <v>34672.347011999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.631208</v>
+        <v>9.6312080000000009</v>
       </c>
       <c r="AV14" s="1">
-        <v>1433.030000</v>
+        <v>1433.03</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.854000</v>
+        <v>-312.85399999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>34683.726725</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.634369</v>
+        <v>9.6343689999999995</v>
       </c>
       <c r="BA14" s="1">
-        <v>1452.320000</v>
+        <v>1452.32</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.039000</v>
+        <v>-365.03899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>34695.184308</v>
+        <v>34695.184308000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.637551</v>
+        <v>9.6375510000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.826000</v>
+        <v>-613.82600000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>34705.770918</v>
+        <v>34705.770918000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.640492</v>
+        <v>9.6404920000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1690.870000</v>
+        <v>1690.87</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1060.520000</v>
+        <v>-1060.52</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>34717.330681</v>
+        <v>34717.330680999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.643703</v>
+        <v>9.6437030000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1983.970000</v>
+        <v>1983.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1835.700000</v>
+        <v>-1835.7</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>34727.943081</v>
+        <v>34727.943080999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.646651</v>
+        <v>9.6466510000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>2371.350000</v>
+        <v>2371.35</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2729.610000</v>
+        <v>-2729.61</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>34738.727099</v>
+        <v>34738.727099000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.649646</v>
+        <v>9.6496460000000006</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2853.840000</v>
+        <v>2853.84</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3711.780000</v>
+        <v>-3711.78</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>34750.820059</v>
+        <v>34750.820058999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.653006</v>
+        <v>9.6530059999999995</v>
       </c>
       <c r="CE14" s="1">
-        <v>4287.070000</v>
+        <v>4287.07</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6081.960000</v>
+        <v>-6081.96</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>34577.816978</v>
+        <v>34577.816978000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.604949</v>
+        <v>9.6049489999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>1250.010000</v>
+        <v>1250.01</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.544000</v>
+        <v>-308.54399999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>34588.250822</v>
+        <v>34588.250822000002</v>
       </c>
       <c r="G15" s="1">
-        <v>9.607847</v>
+        <v>9.6078469999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>1275.220000</v>
+        <v>1275.22</v>
       </c>
       <c r="I15" s="1">
-        <v>-267.063000</v>
+        <v>-267.06299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>34598.380645</v>
+        <v>34598.380644999997</v>
       </c>
       <c r="L15" s="1">
-        <v>9.610661</v>
+        <v>9.6106610000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>1310.860000</v>
+        <v>1310.86</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.577000</v>
+        <v>-203.577</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>34609.279734</v>
+        <v>34609.279734000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.613689</v>
+        <v>9.6136890000000008</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.430000</v>
+        <v>1322.43</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.463000</v>
+        <v>-185.46299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>34619.797369</v>
       </c>
       <c r="V15" s="1">
-        <v>9.616610</v>
+        <v>9.6166099999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1335.790000</v>
+        <v>1335.79</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.737000</v>
+        <v>-171.73699999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>34630.308587</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.619530</v>
+        <v>9.6195299999999992</v>
       </c>
       <c r="AB15" s="1">
-        <v>1353.410000</v>
+        <v>1353.41</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.550000</v>
+        <v>-169.55</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>34640.830250</v>
+        <v>34640.830249999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.622453</v>
+        <v>9.6224530000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1366.070000</v>
+        <v>1366.07</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.139000</v>
+        <v>-179.13900000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>34650.918353</v>
+        <v>34650.918353000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.625255</v>
+        <v>9.6252549999999992</v>
       </c>
       <c r="AL15" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.050000</v>
+        <v>-209.05</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>34661.969217</v>
+        <v>34661.969216999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.628325</v>
+        <v>9.6283250000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.925000</v>
+        <v>-252.92500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>34673.027026</v>
+        <v>34673.027026000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.631396</v>
+        <v>9.6313960000000005</v>
       </c>
       <c r="AV15" s="1">
-        <v>1433.040000</v>
+        <v>1433.04</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.841000</v>
+        <v>-312.84100000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>34684.123525</v>
+        <v>34684.123525000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.634479</v>
+        <v>9.6344790000000007</v>
       </c>
       <c r="BA15" s="1">
-        <v>1452.340000</v>
+        <v>1452.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.078000</v>
+        <v>-365.07799999999997</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>34695.578132</v>
+        <v>34695.578132000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.637661</v>
+        <v>9.6376609999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1537.270000</v>
+        <v>1537.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.797000</v>
+        <v>-613.79700000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>34706.131544</v>
+        <v>34706.131544000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.640592</v>
+        <v>9.6405919999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1690.850000</v>
+        <v>1690.85</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1060.530000</v>
+        <v>-1060.53</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>34717.727479</v>
+        <v>34717.727479000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.643813</v>
+        <v>9.6438129999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1983.930000</v>
+        <v>1983.93</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1835.680000</v>
+        <v>-1835.68</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>34728.361241</v>
+        <v>34728.361240999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.646767</v>
+        <v>9.6467670000000005</v>
       </c>
       <c r="BU15" s="1">
-        <v>2371.950000</v>
+        <v>2371.9499999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2729.420000</v>
+        <v>-2729.42</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>34739.160602</v>
+        <v>34739.160602000004</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.649767</v>
+        <v>9.6497670000000006</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2853.430000</v>
+        <v>2853.43</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3711.120000</v>
+        <v>-3711.12</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>34751.336891</v>
+        <v>34751.336890999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.653149</v>
+        <v>9.6531490000000009</v>
       </c>
       <c r="CE15" s="1">
-        <v>4276.530000</v>
+        <v>4276.53</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6067.470000</v>
+        <v>-6067.47</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>34578.160703</v>
+        <v>34578.160703000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.605045</v>
+        <v>9.6050450000000005</v>
       </c>
       <c r="C16" s="1">
-        <v>1249.880000</v>
+        <v>1249.8800000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.534000</v>
+        <v>-308.53399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>34588.600015</v>
+        <v>34588.600015000004</v>
       </c>
       <c r="G16" s="1">
-        <v>9.607944</v>
+        <v>9.6079439999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1275.520000</v>
+        <v>1275.52</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.662000</v>
+        <v>-266.66199999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>34599.076005</v>
+        <v>34599.076005000003</v>
       </c>
       <c r="L16" s="1">
-        <v>9.610854</v>
+        <v>9.6108539999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1310.410000</v>
+        <v>1310.4100000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.789000</v>
+        <v>-203.78899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>34609.630869</v>
+        <v>34609.630869000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.613786</v>
+        <v>9.6137859999999993</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.500000</v>
+        <v>1322.5</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.519000</v>
+        <v>-185.51900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>34620.139113</v>
+        <v>34620.139112999997</v>
       </c>
       <c r="V16" s="1">
-        <v>9.616705</v>
+        <v>9.6167049999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>1335.700000</v>
+        <v>1335.7</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.908000</v>
+        <v>-171.90799999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>34630.659756</v>
+        <v>34630.659756000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.619628</v>
+        <v>9.6196280000000005</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.030000</v>
+        <v>1353.03</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.426000</v>
+        <v>-169.42599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>34641.174445</v>
+        <v>34641.174444999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.622548</v>
+        <v>9.6225480000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1366.060000</v>
+        <v>1366.06</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.146000</v>
+        <v>-179.14599999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>34651.575550</v>
+        <v>34651.575550000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.625438</v>
+        <v>9.6254380000000008</v>
       </c>
       <c r="AL16" s="1">
-        <v>1386.740000</v>
+        <v>1386.74</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.016000</v>
+        <v>-209.01599999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>34662.410690</v>
+        <v>34662.410689999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.628447</v>
+        <v>9.6284469999999995</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.866000</v>
+        <v>-252.86600000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>34673.468469</v>
+        <v>34673.468468999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.631519</v>
+        <v>9.6315190000000008</v>
       </c>
       <c r="AV16" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.830000</v>
+        <v>-312.83</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>34684.513875</v>
+        <v>34684.513874999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.634587</v>
+        <v>9.6345869999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1452.330000</v>
+        <v>1452.33</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.029000</v>
+        <v>-365.029</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>34695.938227</v>
+        <v>34695.938226999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.637761</v>
+        <v>9.6377609999999994</v>
       </c>
       <c r="BF16" s="1">
-        <v>1537.290000</v>
+        <v>1537.29</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.857000</v>
+        <v>-613.85699999999997</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>34706.506803</v>
+        <v>34706.506802999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.640696</v>
+        <v>9.6406960000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1690.850000</v>
+        <v>1690.85</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1060.530000</v>
+        <v>-1060.53</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>34718.146628</v>
+        <v>34718.146628000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.643930</v>
+        <v>9.6439299999999992</v>
       </c>
       <c r="BP16" s="1">
-        <v>1984.110000</v>
+        <v>1984.11</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1835.740000</v>
+        <v>-1835.74</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>34728.773416</v>
+        <v>34728.773416000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.646882</v>
+        <v>9.6468819999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2372.460000</v>
+        <v>2372.46</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2729.910000</v>
+        <v>-2729.91</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>34739.581210</v>
+        <v>34739.581209999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.649884</v>
+        <v>9.6498840000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.380000</v>
+        <v>2853.38</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3711.930000</v>
+        <v>-3711.93</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>34751.859675</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.653294</v>
+        <v>9.6532940000000007</v>
       </c>
       <c r="CE16" s="1">
-        <v>4277.100000</v>
+        <v>4277.1000000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6090.880000</v>
+        <v>-6090.88</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>34578.845678</v>
+        <v>34578.845677999998</v>
       </c>
       <c r="B17" s="1">
-        <v>9.605235</v>
+        <v>9.6052350000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>1250.140000</v>
+        <v>1250.1400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.888000</v>
+        <v>-308.88799999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>34589.290477</v>
+        <v>34589.290477000002</v>
       </c>
       <c r="G17" s="1">
         <v>9.608136</v>
       </c>
       <c r="H17" s="1">
-        <v>1275.200000</v>
+        <v>1275.2</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.671000</v>
+        <v>-266.67099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>34599.420228</v>
+        <v>34599.420228000003</v>
       </c>
       <c r="L17" s="1">
-        <v>9.610950</v>
+        <v>9.6109500000000008</v>
       </c>
       <c r="M17" s="1">
-        <v>1310.790000</v>
+        <v>1310.79</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.773000</v>
+        <v>-203.773</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>34609.976582</v>
+        <v>34609.976582000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.613882</v>
+        <v>9.6138820000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.515000</v>
+        <v>-185.51499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>34620.483831</v>
+        <v>34620.483830999998</v>
       </c>
       <c r="V17" s="1">
-        <v>9.616801</v>
+        <v>9.6168010000000006</v>
       </c>
       <c r="W17" s="1">
-        <v>1335.740000</v>
+        <v>1335.74</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.783000</v>
+        <v>-171.78299999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>34631.311993</v>
+        <v>34631.311993000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.619809</v>
+        <v>9.6198090000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1353.110000</v>
+        <v>1353.11</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.376000</v>
+        <v>-169.376</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>34641.627328</v>
+        <v>34641.627328000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.622674</v>
+        <v>9.6226739999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1365.980000</v>
+        <v>1365.98</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.100000</v>
+        <v>-179.1</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>34651.965405</v>
+        <v>34651.965405000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.625546</v>
+        <v>9.6255459999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.061000</v>
+        <v>-209.06100000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>34662.768769</v>
+        <v>34662.768769000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.628547</v>
+        <v>9.6285469999999993</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.892000</v>
+        <v>-252.892</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>34673.844928</v>
+        <v>34673.844927999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.631624</v>
+        <v>9.6316240000000004</v>
       </c>
       <c r="AV17" s="1">
-        <v>1433.030000</v>
+        <v>1433.03</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.849000</v>
+        <v>-312.84899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>34684.872482</v>
+        <v>34684.872481999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.634687</v>
+        <v>9.6346869999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1452.330000</v>
+        <v>1452.33</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.048000</v>
+        <v>-365.048</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>34696.355859</v>
+        <v>34696.355859000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.637877</v>
+        <v>9.6378769999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1537.260000</v>
+        <v>1537.26</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.858000</v>
+        <v>-613.85799999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>34706.939493</v>
+        <v>34706.939492999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.640817</v>
+        <v>9.6408170000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1690.910000</v>
+        <v>1690.91</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1060.440000</v>
+        <v>-1060.44</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>34718.543893</v>
+        <v>34718.543893000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.644040</v>
+        <v>9.6440400000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1984.060000</v>
+        <v>1984.06</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1835.640000</v>
+        <v>-1835.64</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>34729.181128</v>
+        <v>34729.181127999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.646995</v>
+        <v>9.6469950000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>2372.780000</v>
+        <v>2372.7800000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2730.130000</v>
+        <v>-2730.13</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>34740.003804</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.650001</v>
+        <v>9.6500009999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3711.430000</v>
+        <v>-3711.43</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>34752.394361</v>
+        <v>34752.394360999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.653443</v>
+        <v>9.6534429999999993</v>
       </c>
       <c r="CE17" s="1">
-        <v>4279.120000</v>
+        <v>4279.12</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6070.680000</v>
+        <v>-6070.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>34579.186927</v>
+        <v>34579.186927000002</v>
       </c>
       <c r="B18" s="1">
-        <v>9.605330</v>
+        <v>9.6053300000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>1249.860000</v>
+        <v>1249.8599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.153000</v>
+        <v>-308.15300000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>34589.637633</v>
+        <v>34589.637632999998</v>
       </c>
       <c r="G18" s="1">
-        <v>9.608233</v>
+        <v>9.6082330000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1276.090000</v>
+        <v>1276.0899999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.850000</v>
+        <v>-266.85000000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>34599.766435</v>
+        <v>34599.766434999998</v>
       </c>
       <c r="L18" s="1">
         <v>9.611046</v>
       </c>
       <c r="M18" s="1">
-        <v>1310.680000</v>
+        <v>1310.68</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.251000</v>
+        <v>-203.251</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>34610.629812</v>
+        <v>34610.629811999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.614064</v>
+        <v>9.6140640000000008</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.340000</v>
+        <v>1322.34</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.568000</v>
+        <v>-185.56800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>34621.138086</v>
+        <v>34621.138085999999</v>
       </c>
       <c r="V18" s="1">
-        <v>9.616983</v>
+        <v>9.6169829999999994</v>
       </c>
       <c r="W18" s="1">
-        <v>1335.720000</v>
+        <v>1335.72</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.737000</v>
+        <v>-171.73699999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>34631.705321</v>
+        <v>34631.705321000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.619918</v>
+        <v>9.6199180000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1353.070000</v>
+        <v>1353.07</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.583000</v>
+        <v>-169.583</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>34641.866395</v>
+        <v>34641.866394999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.622741</v>
+        <v>9.6227409999999995</v>
       </c>
       <c r="AG18" s="1">
-        <v>1366.070000</v>
+        <v>1366.07</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.114000</v>
+        <v>-179.114</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>34652.315084</v>
+        <v>34652.315084000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.625643</v>
+        <v>9.6256430000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1386.710000</v>
+        <v>1386.71</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.056000</v>
+        <v>-209.05600000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>34663.129391</v>
+        <v>34663.129391000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.628647</v>
+        <v>9.6286470000000008</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.870000</v>
+        <v>-252.87</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>34674.196592</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.631721</v>
+        <v>9.6317210000000006</v>
       </c>
       <c r="AV18" s="1">
-        <v>1433.030000</v>
+        <v>1433.03</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.853000</v>
+        <v>-312.85300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>34685.289619</v>
+        <v>34685.289619000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.634803</v>
+        <v>9.6348029999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1452.320000</v>
+        <v>1452.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.069000</v>
+        <v>-365.06900000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>34696.659908</v>
+        <v>34696.659908000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.637961</v>
+        <v>9.6379610000000007</v>
       </c>
       <c r="BF18" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.843000</v>
+        <v>-613.84299999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>34707.287188</v>
+        <v>34707.287188000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.640913</v>
+        <v>9.6409129999999994</v>
       </c>
       <c r="BK18" s="1">
-        <v>1690.850000</v>
+        <v>1690.85</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1060.520000</v>
+        <v>-1060.52</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>34718.962518</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.644156</v>
+        <v>9.6441560000000006</v>
       </c>
       <c r="BP18" s="1">
-        <v>1984.040000</v>
+        <v>1984.04</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1835.650000</v>
+        <v>-1835.65</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>34729.601703</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.647112</v>
+        <v>9.6471119999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2372.770000</v>
+        <v>2372.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2730.710000</v>
+        <v>-2730.71</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>34740.458633</v>
+        <v>34740.458633000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.650127</v>
+        <v>9.6501269999999995</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.410000</v>
+        <v>2853.41</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3711.840000</v>
+        <v>-3711.84</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>34752.935001</v>
+        <v>34752.935000999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.653593</v>
+        <v>9.6535930000000008</v>
       </c>
       <c r="CE18" s="1">
-        <v>4263.360000</v>
+        <v>4263.3599999999997</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6080.710000</v>
+        <v>-6080.71</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>34579.528205</v>
+        <v>34579.528205000002</v>
       </c>
       <c r="B19" s="1">
-        <v>9.605425</v>
+        <v>9.6054250000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.822000</v>
+        <v>-308.822</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>34589.987311</v>
+        <v>34589.987310999997</v>
       </c>
       <c r="G19" s="1">
-        <v>9.608330</v>
+        <v>9.6083300000000005</v>
       </c>
       <c r="H19" s="1">
-        <v>1275.790000</v>
+        <v>1275.79</v>
       </c>
       <c r="I19" s="1">
-        <v>-267.046000</v>
+        <v>-267.04599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>34600.429121</v>
+        <v>34600.429121000001</v>
       </c>
       <c r="L19" s="1">
-        <v>9.611230</v>
+        <v>9.6112300000000008</v>
       </c>
       <c r="M19" s="1">
-        <v>1310.810000</v>
+        <v>1310.81</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.815000</v>
+        <v>-203.815</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>34611.021653</v>
+        <v>34611.021653000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.614173</v>
+        <v>9.6141729999999992</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.433000</v>
+        <v>-185.43299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>34621.514022</v>
+        <v>34621.514022000003</v>
       </c>
       <c r="V19" s="1">
-        <v>9.617087</v>
+        <v>9.6170869999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>1335.780000</v>
+        <v>1335.78</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.914000</v>
+        <v>-171.91399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>34632.054043</v>
+        <v>34632.054042999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.620015</v>
+        <v>9.6200150000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.351000</v>
+        <v>-169.351</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>34642.210586</v>
+        <v>34642.210586000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.622836</v>
+        <v>9.6228359999999995</v>
       </c>
       <c r="AG19" s="1">
-        <v>1365.990000</v>
+        <v>1365.99</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.144000</v>
+        <v>-179.14400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>34652.661798</v>
+        <v>34652.661798000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.625739</v>
+        <v>9.6257389999999994</v>
       </c>
       <c r="AL19" s="1">
-        <v>1386.720000</v>
+        <v>1386.72</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.070000</v>
+        <v>-209.07</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>34663.544044</v>
+        <v>34663.544044000002</v>
       </c>
       <c r="AP19" s="1">
         <v>9.628762</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.879000</v>
+        <v>-252.87899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>34674.678705</v>
+        <v>34674.678704999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.631855</v>
+        <v>9.6318549999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.828000</v>
+        <v>-312.82799999999997</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>34685.593203</v>
+        <v>34685.593202999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.634887</v>
+        <v>9.6348870000000009</v>
       </c>
       <c r="BA19" s="1">
-        <v>1452.330000</v>
+        <v>1452.33</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.013000</v>
+        <v>-365.01299999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>34697.023476</v>
+        <v>34697.023476000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.638062</v>
+        <v>9.6380619999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1537.260000</v>
+        <v>1537.26</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.800000</v>
+        <v>-613.79999999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>34707.664148</v>
+        <v>34707.664148000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.641018</v>
+        <v>9.6410180000000008</v>
       </c>
       <c r="BK19" s="1">
-        <v>1690.840000</v>
+        <v>1690.84</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1060.530000</v>
+        <v>-1060.53</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>34719.360838</v>
+        <v>34719.360838000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.644267</v>
+        <v>9.6442669999999993</v>
       </c>
       <c r="BP19" s="1">
-        <v>1984.020000</v>
+        <v>1984.02</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1835.550000</v>
+        <v>-1835.55</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>34730.029750</v>
+        <v>34730.029750000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.647230</v>
+        <v>9.6472300000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>2373.030000</v>
+        <v>2373.0300000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2731.190000</v>
+        <v>-2731.19</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>34740.877752</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.650244</v>
+        <v>9.6502440000000007</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2853.590000</v>
+        <v>2853.59</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3711.120000</v>
+        <v>-3711.12</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>34753.473657</v>
+        <v>34753.473657000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.653743</v>
+        <v>9.6537430000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>4286.600000</v>
+        <v>4286.6000000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6080.640000</v>
+        <v>-6080.64</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>34580.188348</v>
+        <v>34580.188348000003</v>
       </c>
       <c r="B20" s="1">
-        <v>9.605608</v>
+        <v>9.6056080000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1250.130000</v>
+        <v>1250.1300000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.213000</v>
+        <v>-308.21300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>34590.428255</v>
+        <v>34590.428254999999</v>
       </c>
       <c r="G20" s="1">
-        <v>9.608452</v>
+        <v>9.6084519999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1275.190000</v>
+        <v>1275.19</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.339000</v>
+        <v>-266.339</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>34600.805554</v>
+        <v>34600.805553999999</v>
       </c>
       <c r="L20" s="1">
-        <v>9.611335</v>
+        <v>9.6113350000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>1310.670000</v>
+        <v>1310.67</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.305000</v>
+        <v>-203.30500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>34611.368355</v>
+        <v>34611.368354999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.614269</v>
+        <v>9.6142690000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.400000</v>
+        <v>1322.4</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.456000</v>
+        <v>-185.45599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>34621.858245</v>
+        <v>34621.858245000003</v>
       </c>
       <c r="V20" s="1">
-        <v>9.617183</v>
+        <v>9.6171830000000007</v>
       </c>
       <c r="W20" s="1">
-        <v>1335.830000</v>
+        <v>1335.83</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.706000</v>
+        <v>-171.70599999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>34632.403689</v>
+        <v>34632.403688999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.620112</v>
+        <v>9.6201120000000007</v>
       </c>
       <c r="AB20" s="1">
-        <v>1353.070000</v>
+        <v>1353.07</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.471000</v>
+        <v>-169.471</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>34642.643130</v>
+        <v>34642.643129999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.622956</v>
+        <v>9.6229560000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>1366.050000</v>
+        <v>1366.05</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.135000</v>
+        <v>-179.13499999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>34653.087391</v>
+        <v>34653.087391000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.625858</v>
+        <v>9.6258579999999991</v>
       </c>
       <c r="AL20" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>34663.851074</v>
+        <v>34663.851073999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.628848</v>
+        <v>9.6288479999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.887000</v>
+        <v>-252.887</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>34674.926703</v>
+        <v>34674.926702999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.631924</v>
+        <v>9.6319239999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.814000</v>
+        <v>-312.81400000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>34685.949794</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.634986</v>
+        <v>9.6349859999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1452.320000</v>
+        <v>1452.32</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.996000</v>
+        <v>-364.99599999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>34697.381618</v>
+        <v>34697.381617999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.638162</v>
+        <v>9.6381619999999995</v>
       </c>
       <c r="BF20" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.798000</v>
+        <v>-613.798</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>34708.039619</v>
+        <v>34708.039619000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.641122</v>
+        <v>9.6411219999999993</v>
       </c>
       <c r="BK20" s="1">
-        <v>1690.780000</v>
+        <v>1690.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1060.500000</v>
+        <v>-1060.5</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>34719.789844</v>
+        <v>34719.789843999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.644386</v>
+        <v>9.6443860000000008</v>
       </c>
       <c r="BP20" s="1">
-        <v>1983.990000</v>
+        <v>1983.99</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1835.480000</v>
+        <v>-1835.48</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>34730.433494</v>
+        <v>34730.433493999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.647343</v>
+        <v>9.6473429999999993</v>
       </c>
       <c r="BU20" s="1">
-        <v>2373.110000</v>
+        <v>2373.11</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2731.850000</v>
+        <v>-2731.85</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>34741.320315</v>
+        <v>34741.320314999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.650367</v>
+        <v>9.6503669999999993</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2853.570000</v>
+        <v>2853.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3710.770000</v>
+        <v>-3710.77</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>34754.014328</v>
+        <v>34754.014327999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.653893</v>
+        <v>9.6538930000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4267.190000</v>
+        <v>4267.1899999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6069.180000</v>
+        <v>-6069.18</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>34580.553900</v>
+        <v>34580.553899999999</v>
       </c>
       <c r="B21" s="1">
-        <v>9.605709</v>
+        <v>9.6057089999999992</v>
       </c>
       <c r="C21" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.700000</v>
+        <v>-308.7</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>34590.688656</v>
+        <v>34590.688655999998</v>
       </c>
       <c r="G21" s="1">
-        <v>9.608525</v>
+        <v>9.6085250000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1276.060000</v>
+        <v>1276.06</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.092000</v>
+        <v>-266.09199999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>34601.147297</v>
+        <v>34601.147297000003</v>
       </c>
       <c r="L21" s="1">
-        <v>9.611430</v>
+        <v>9.6114300000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>1310.550000</v>
+        <v>1310.55</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.842000</v>
+        <v>-203.84200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>34611.721011</v>
+        <v>34611.721011000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.614367</v>
+        <v>9.6143669999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.420000</v>
+        <v>1322.42</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.533000</v>
+        <v>-185.53299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>34622.204987</v>
+        <v>34622.204986999997</v>
       </c>
       <c r="V21" s="1">
-        <v>9.617279</v>
+        <v>9.6172789999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1335.550000</v>
+        <v>1335.55</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.971000</v>
+        <v>-171.971</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>34632.819366</v>
+        <v>34632.819366000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.620228</v>
+        <v>9.6202279999999991</v>
       </c>
       <c r="AB21" s="1">
-        <v>1353.120000</v>
+        <v>1353.12</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.330000</v>
+        <v>-169.33</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>34642.905481</v>
+        <v>34642.905481000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.623029</v>
+        <v>9.6230290000000007</v>
       </c>
       <c r="AG21" s="1">
-        <v>1366.010000</v>
+        <v>1366.01</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.180000</v>
+        <v>-179.18</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>34653.368587</v>
+        <v>34653.368586999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.625936</v>
+        <v>9.6259359999999994</v>
       </c>
       <c r="AL21" s="1">
-        <v>1386.740000</v>
+        <v>1386.74</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>34664.210664</v>
+        <v>34664.210663999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.628947</v>
+        <v>9.6289470000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1408.460000</v>
+        <v>1408.46</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.889000</v>
+        <v>-252.88900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>34675.289774</v>
+        <v>34675.289773999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.632025</v>
+        <v>9.6320250000000005</v>
       </c>
       <c r="AV21" s="1">
-        <v>1433.020000</v>
+        <v>1433.02</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.829000</v>
+        <v>-312.82900000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>34686.308657</v>
+        <v>34686.308657000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.635086</v>
+        <v>9.6350859999999994</v>
       </c>
       <c r="BA21" s="1">
-        <v>1452.360000</v>
+        <v>1452.36</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.998000</v>
+        <v>-364.99799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>34698.105744</v>
@@ -5529,1375 +5945,1376 @@
         <v>9.638363</v>
       </c>
       <c r="BF21" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.872000</v>
+        <v>-613.87199999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>34708.789075</v>
+        <v>34708.789075000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.641330</v>
+        <v>9.64133</v>
       </c>
       <c r="BK21" s="1">
-        <v>1690.790000</v>
+        <v>1690.79</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1060.480000</v>
+        <v>-1060.48</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>34720.178740</v>
+        <v>34720.178740000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.644494</v>
+        <v>9.6444939999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1983.900000</v>
+        <v>1983.9</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1835.580000</v>
+        <v>-1835.58</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>34730.848149</v>
+        <v>34730.848148999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.647458</v>
+        <v>9.6474580000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>2372.840000</v>
+        <v>2372.84</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2732.340000</v>
+        <v>-2732.34</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>34741.742811</v>
+        <v>34741.742810999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.650484</v>
+        <v>9.6504840000000005</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.880000</v>
+        <v>2852.88</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3710.470000</v>
+        <v>-3710.47</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>34754.868407</v>
+        <v>34754.868407000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.654130</v>
+        <v>9.6541300000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>4284.410000</v>
+        <v>4284.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6074.520000</v>
+        <v>-6074.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>34580.897657</v>
+        <v>34580.897657000001</v>
       </c>
       <c r="B22" s="1">
-        <v>9.605805</v>
+        <v>9.6058050000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.074000</v>
+        <v>-308.07400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>34591.030894</v>
+        <v>34591.030894000003</v>
       </c>
       <c r="G22" s="1">
-        <v>9.608620</v>
+        <v>9.6086200000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1275.430000</v>
+        <v>1275.43</v>
       </c>
       <c r="I22" s="1">
-        <v>-267.006000</v>
+        <v>-267.00599999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>34601.491553</v>
       </c>
       <c r="L22" s="1">
-        <v>9.611525</v>
+        <v>9.6115250000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>1310.570000</v>
+        <v>1310.57</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.868000</v>
+        <v>-203.86799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>34612.144134</v>
+        <v>34612.144134000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.614484</v>
+        <v>9.6144839999999991</v>
       </c>
       <c r="R22" s="1">
-        <v>1322.480000</v>
+        <v>1322.48</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.545000</v>
+        <v>-185.54499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>34622.630021</v>
+        <v>34622.630020999997</v>
       </c>
       <c r="V22" s="1">
-        <v>9.617397</v>
+        <v>9.6173970000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>1335.540000</v>
+        <v>1335.54</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.810000</v>
+        <v>-171.81</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>34633.110486</v>
+        <v>34633.110485999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.620308</v>
+        <v>9.6203079999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1353.010000</v>
+        <v>1353.01</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.500000</v>
+        <v>-169.5</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>34643.250697</v>
+        <v>34643.250697000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.623125</v>
+        <v>9.6231249999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1366.020000</v>
+        <v>1366.02</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.136000</v>
+        <v>-179.136</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>34653.719756</v>
+        <v>34653.719755999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.626033</v>
+        <v>9.6260329999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.039000</v>
+        <v>-209.03899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>34664.570269</v>
+        <v>34664.570269000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.629047</v>
+        <v>9.6290469999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.862000</v>
+        <v>-252.86199999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>34676.019887</v>
+        <v>34676.019887000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.632228</v>
+        <v>9.6322279999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>1433.060000</v>
+        <v>1433.06</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.866000</v>
+        <v>-312.86599999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>34687.032064</v>
+        <v>34687.032063999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.635287</v>
+        <v>9.6352869999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1452.350000</v>
+        <v>1452.35</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.005000</v>
+        <v>-365.005</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>34698.491632</v>
+        <v>34698.491631999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.638470</v>
+        <v>9.6384699999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1537.270000</v>
+        <v>1537.27</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.851000</v>
+        <v>-613.851</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>34709.163586</v>
+        <v>34709.163586000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.641434</v>
+        <v>9.6414340000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1690.830000</v>
+        <v>1690.83</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1060.510000</v>
+        <v>-1060.51</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>34720.601795</v>
+        <v>34720.601795000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.644612</v>
+        <v>9.6446120000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1984.020000</v>
+        <v>1984.02</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1835.610000</v>
+        <v>-1835.61</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>34731.569332</v>
+        <v>34731.569331999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.647658</v>
+        <v>9.6476579999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2372.590000</v>
+        <v>2372.59</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2732.950000</v>
+        <v>-2732.95</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>34742.504173</v>
+        <v>34742.504173000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.650696</v>
+        <v>9.6506959999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.800000</v>
+        <v>2852.8</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3710.910000</v>
+        <v>-3710.91</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>34755.093590</v>
+        <v>34755.093589999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.654193</v>
+        <v>9.6541929999999994</v>
       </c>
       <c r="CE22" s="1">
-        <v>4286.380000</v>
+        <v>4286.38</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6074.200000</v>
+        <v>-6074.2</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>34581.241883</v>
+        <v>34581.241883000002</v>
       </c>
       <c r="B23" s="1">
-        <v>9.605901</v>
+        <v>9.6059009999999994</v>
       </c>
       <c r="C23" s="1">
-        <v>1250.390000</v>
+        <v>1250.3900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.754000</v>
+        <v>-308.75400000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>34591.452528</v>
+        <v>34591.452528000002</v>
       </c>
       <c r="G23" s="1">
-        <v>9.608737</v>
+        <v>9.6087369999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>1275.770000</v>
+        <v>1275.77</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.551000</v>
+        <v>-266.55099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>34601.913121</v>
+        <v>34601.913120999998</v>
       </c>
       <c r="L23" s="1">
-        <v>9.611643</v>
+        <v>9.6116430000000008</v>
       </c>
       <c r="M23" s="1">
-        <v>1310.340000</v>
+        <v>1310.3399999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.565000</v>
+        <v>-203.565</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>34612.425330</v>
+        <v>34612.425329999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.614563</v>
+        <v>9.6145630000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.390000</v>
+        <v>1322.39</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.604000</v>
+        <v>-185.60400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>34622.910260</v>
+        <v>34622.910259999997</v>
       </c>
       <c r="V23" s="1">
-        <v>9.617475</v>
+        <v>9.6174750000000007</v>
       </c>
       <c r="W23" s="1">
-        <v>1335.700000</v>
+        <v>1335.7</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.898000</v>
+        <v>-171.898</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>34633.459175</v>
+        <v>34633.459175000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.620405</v>
+        <v>9.6204049999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1353.070000</v>
+        <v>1353.07</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.471000</v>
+        <v>-169.471</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>34643.594456</v>
+        <v>34643.594455999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.623221</v>
+        <v>9.6232209999999991</v>
       </c>
       <c r="AG23" s="1">
-        <v>1366.010000</v>
+        <v>1366.01</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.239000</v>
+        <v>-179.239</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>34654.066955</v>
+        <v>34654.066955000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.626130</v>
+        <v>9.6261299999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1386.710000</v>
+        <v>1386.71</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.044000</v>
+        <v>-209.04400000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>34665.300880</v>
+        <v>34665.300880000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.629250</v>
+        <v>9.6292500000000008</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1408.420000</v>
+        <v>1408.42</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.824000</v>
+        <v>-252.82400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>34676.407261</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.632335</v>
+        <v>9.6323349999999994</v>
       </c>
       <c r="AV23" s="1">
-        <v>1433.010000</v>
+        <v>1433.01</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>34687.409022</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.635391</v>
+        <v>9.6353910000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>1452.340000</v>
+        <v>1452.34</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.025000</v>
+        <v>-365.02499999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>34698.875535</v>
+        <v>34698.875534999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.638577</v>
+        <v>9.6385769999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1537.250000</v>
+        <v>1537.25</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.800000</v>
+        <v>-613.79999999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>34709.849521</v>
+        <v>34709.849520999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.641625</v>
+        <v>9.6416249999999994</v>
       </c>
       <c r="BK23" s="1">
-        <v>1690.900000</v>
+        <v>1690.9</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1060.460000</v>
+        <v>-1060.46</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>34721.301156</v>
+        <v>34721.301156000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.644806</v>
+        <v>9.6448060000000009</v>
       </c>
       <c r="BP23" s="1">
-        <v>1983.760000</v>
+        <v>1983.76</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1835.440000</v>
+        <v>-1835.44</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>34731.678948</v>
+        <v>34731.678948000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.647689</v>
+        <v>9.6476889999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>2372.430000</v>
+        <v>2372.4299999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2733.560000</v>
+        <v>-2733.56</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>34742.652936</v>
+        <v>34742.652935999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.650737</v>
+        <v>9.6507369999999995</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2853.620000</v>
+        <v>2853.62</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3710.820000</v>
+        <v>-3710.82</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>34755.611941</v>
+        <v>34755.611941000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.654337</v>
+        <v>9.6543369999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4271.560000</v>
+        <v>4271.5600000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6064.860000</v>
+        <v>-6064.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>34581.660972</v>
+        <v>34581.660971999998</v>
       </c>
       <c r="B24" s="1">
-        <v>9.606017</v>
+        <v>9.6060169999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1250.120000</v>
+        <v>1250.1199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.455000</v>
+        <v>-308.45499999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>34591.728302</v>
+        <v>34591.728302000003</v>
       </c>
       <c r="G24" s="1">
-        <v>9.608813</v>
+        <v>9.6088129999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>1275.670000</v>
+        <v>1275.67</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.923000</v>
+        <v>-265.923</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>34602.207743</v>
+        <v>34602.207742999999</v>
       </c>
       <c r="L24" s="1">
-        <v>9.611724</v>
+        <v>9.6117240000000006</v>
       </c>
       <c r="M24" s="1">
-        <v>1310.770000</v>
+        <v>1310.77</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.402000</v>
+        <v>-203.40199999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>34612.775011</v>
+        <v>34612.775010999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.614660</v>
+        <v>9.6146600000000007</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.350000</v>
+        <v>1322.35</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.584000</v>
+        <v>-185.584</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>34623.252036</v>
+        <v>34623.252035999998</v>
       </c>
       <c r="V24" s="1">
-        <v>9.617570</v>
+        <v>9.6175700000000006</v>
       </c>
       <c r="W24" s="1">
-        <v>1335.750000</v>
+        <v>1335.75</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.915000</v>
+        <v>-171.91499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>34633.807365</v>
+        <v>34633.807365000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.620502</v>
+        <v>9.6205020000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1353.110000</v>
+        <v>1353.11</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.640000</v>
+        <v>-169.64</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>34644.282407</v>
+        <v>34644.282406999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.623412</v>
+        <v>9.6234120000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1365.990000</v>
+        <v>1365.99</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.167000</v>
+        <v>-179.167</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>34654.766345</v>
+        <v>34654.766344999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.626324</v>
+        <v>9.6263240000000003</v>
       </c>
       <c r="AL24" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.078000</v>
+        <v>-209.078</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>34665.678828</v>
+        <v>34665.678827999996</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.629355</v>
+        <v>9.6293550000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.839000</v>
+        <v>-252.839</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>34676.771326</v>
+        <v>34676.771326000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.632436</v>
+        <v>9.6324360000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.990000</v>
+        <v>1432.99</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.806000</v>
+        <v>-312.80599999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>34687.787472</v>
+        <v>34687.787472000004</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.635497</v>
+        <v>9.6354970000000009</v>
       </c>
       <c r="BA24" s="1">
-        <v>1452.300000</v>
+        <v>1452.3</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.979000</v>
+        <v>-364.97899999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>34699.548639</v>
+        <v>34699.548639000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.638764</v>
+        <v>9.6387640000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1537.230000</v>
+        <v>1537.23</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.777000</v>
+        <v>-613.77700000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>34710.289782</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.641747</v>
+        <v>9.6417470000000005</v>
       </c>
       <c r="BK24" s="1">
-        <v>1690.780000</v>
+        <v>1690.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1060.410000</v>
+        <v>-1060.4100000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>34721.434579</v>
+        <v>34721.434579000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.644843</v>
+        <v>9.6448429999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1983.860000</v>
+        <v>1983.86</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1835.490000</v>
+        <v>-1835.49</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>34732.112949</v>
+        <v>34732.112949000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.647809</v>
+        <v>9.6478090000000005</v>
       </c>
       <c r="BU24" s="1">
-        <v>2371.710000</v>
+        <v>2371.71</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2733.610000</v>
+        <v>-2733.61</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>34743.076022</v>
+        <v>34743.076022000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.650854</v>
+        <v>9.6508540000000007</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3710.600000</v>
+        <v>-3710.6</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>34756.130724</v>
+        <v>34756.130724000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.654481</v>
+        <v>9.6544810000000005</v>
       </c>
       <c r="CE24" s="1">
-        <v>4262.650000</v>
+        <v>4262.6499999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6079.280000</v>
+        <v>-6079.28</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>34581.937738</v>
+        <v>34581.937738000001</v>
       </c>
       <c r="B25" s="1">
-        <v>9.606094</v>
+        <v>9.6060940000000006</v>
       </c>
       <c r="C25" s="1">
-        <v>1250.230000</v>
+        <v>1250.23</v>
       </c>
       <c r="D25" s="1">
-        <v>-309.147000</v>
+        <v>-309.14699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>34592.074478</v>
+        <v>34592.074478000002</v>
       </c>
       <c r="G25" s="1">
-        <v>9.608910</v>
+        <v>9.6089099999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1275.690000</v>
+        <v>1275.69</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.548000</v>
+        <v>-265.548</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>34602.553456</v>
+        <v>34602.553456000001</v>
       </c>
       <c r="L25" s="1">
-        <v>9.611820</v>
+        <v>9.6118199999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1310.540000</v>
+        <v>1310.54</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.627000</v>
+        <v>-203.62700000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>34613.123729</v>
+        <v>34613.123728999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.614757</v>
+        <v>9.6147570000000009</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.399000</v>
+        <v>-185.399</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>34624.049604</v>
       </c>
       <c r="V25" s="1">
-        <v>9.617792</v>
+        <v>9.6177919999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1335.650000</v>
+        <v>1335.65</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.010000</v>
+        <v>-172.01</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>34634.502795</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.620695</v>
+        <v>9.6206949999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>1353.040000</v>
+        <v>1353.04</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.447000</v>
+        <v>-169.447</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>34644.624648</v>
+        <v>34644.624647999997</v>
       </c>
       <c r="AF25" s="1">
         <v>9.623507</v>
       </c>
       <c r="AG25" s="1">
-        <v>1365.990000</v>
+        <v>1365.99</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.191000</v>
+        <v>-179.191</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>34655.113513</v>
+        <v>34655.113512999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.626420</v>
+        <v>9.6264199999999995</v>
       </c>
       <c r="AL25" s="1">
-        <v>1386.770000</v>
+        <v>1386.77</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.062000</v>
+        <v>-209.06200000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>34666.068190</v>
+        <v>34666.068189999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.629463</v>
+        <v>9.6294629999999994</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1408.460000</v>
+        <v>1408.46</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.849000</v>
+        <v>-252.84899999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>34677.445389</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.632624</v>
+        <v>9.6326239999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.980000</v>
+        <v>1432.98</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.825000</v>
+        <v>-312.82499999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>34688.459091</v>
+        <v>34688.459090999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.635683</v>
+        <v>9.6356830000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1452.330000</v>
+        <v>1452.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.050000</v>
+        <v>-365.05</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>34699.958303</v>
+        <v>34699.958302999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.638877</v>
+        <v>9.6388770000000008</v>
       </c>
       <c r="BF25" s="1">
-        <v>1537.270000</v>
+        <v>1537.27</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.802000</v>
+        <v>-613.80200000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>34710.663983</v>
+        <v>34710.663982999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.641851</v>
+        <v>9.6418510000000008</v>
       </c>
       <c r="BK25" s="1">
-        <v>1690.860000</v>
+        <v>1690.86</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1060.510000</v>
+        <v>-1060.51</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>34721.846292</v>
+        <v>34721.846292000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.644957</v>
+        <v>9.6449569999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1983.810000</v>
+        <v>1983.81</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1835.580000</v>
+        <v>-1835.58</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>34732.544499</v>
+        <v>34732.544499000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.647929</v>
+        <v>9.6479289999999995</v>
       </c>
       <c r="BU25" s="1">
-        <v>2371.170000</v>
+        <v>2371.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2733.870000</v>
+        <v>-2733.87</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>34743.492164</v>
+        <v>34743.492164000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.650970</v>
+        <v>9.6509699999999992</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2853.200000</v>
+        <v>2853.2</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3711.130000</v>
+        <v>-3711.13</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>34756.646067</v>
+        <v>34756.646067000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.654624</v>
+        <v>9.6546240000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4276.280000</v>
+        <v>4276.28</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6086.670000</v>
+        <v>-6086.67</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>34582.281466</v>
       </c>
       <c r="B26" s="1">
-        <v>9.606189</v>
+        <v>9.6061890000000005</v>
       </c>
       <c r="C26" s="1">
-        <v>1249.910000</v>
+        <v>1249.9100000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.429000</v>
+        <v>-308.42899999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>34592.420220</v>
+        <v>34592.42022</v>
       </c>
       <c r="G26" s="1">
-        <v>9.609006</v>
+        <v>9.6090060000000008</v>
       </c>
       <c r="H26" s="1">
-        <v>1275.290000</v>
+        <v>1275.29</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.067000</v>
+        <v>-266.06700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>34602.899424</v>
+        <v>34602.899424000003</v>
       </c>
       <c r="L26" s="1">
         <v>9.611917</v>
       </c>
       <c r="M26" s="1">
-        <v>1310.230000</v>
+        <v>1310.23</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.339000</v>
+        <v>-203.339</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>34613.820116</v>
+        <v>34613.820116000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.614950</v>
+        <v>9.6149500000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.480000</v>
+        <v>1322.48</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.408000</v>
+        <v>-185.40799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>34624.283187</v>
+        <v>34624.283187000001</v>
       </c>
       <c r="V26" s="1">
-        <v>9.617856</v>
+        <v>9.6178559999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>1335.740000</v>
+        <v>1335.74</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.886000</v>
+        <v>-171.886</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>34634.851471</v>
+        <v>34634.851471000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.620792</v>
+        <v>9.6207919999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1352.960000</v>
+        <v>1352.96</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.554000</v>
+        <v>-169.554</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>34644.967879</v>
+        <v>34644.967879000003</v>
       </c>
       <c r="AF26" s="1">
         <v>9.623602</v>
       </c>
       <c r="AG26" s="1">
-        <v>1365.970000</v>
+        <v>1365.97</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.208000</v>
+        <v>-179.208</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>34655.461318</v>
+        <v>34655.461318000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.626517</v>
+        <v>9.6265169999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1386.750000</v>
+        <v>1386.75</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.068000</v>
+        <v>-209.06800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>34666.748170</v>
+        <v>34666.748169999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.629652</v>
+        <v>9.6296520000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1408.450000</v>
+        <v>1408.45</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.878000</v>
+        <v>-252.87799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>34677.898236</v>
+        <v>34677.898236000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.632750</v>
+        <v>9.6327499999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1433.020000</v>
+        <v>1433.02</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.788000</v>
+        <v>-312.78800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>34688.870734</v>
+        <v>34688.870733999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.635797</v>
+        <v>9.6357970000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1452.360000</v>
+        <v>1452.36</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.014000</v>
+        <v>-365.01400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>34700.347693</v>
+        <v>34700.347693000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.638985</v>
+        <v>9.6389849999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1537.240000</v>
+        <v>1537.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.770000</v>
+        <v>-613.77</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>34711.038929</v>
+        <v>34711.038929000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.641955</v>
+        <v>9.6419549999999994</v>
       </c>
       <c r="BK26" s="1">
-        <v>1690.910000</v>
+        <v>1690.91</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1060.460000</v>
+        <v>-1060.46</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>34722.241598</v>
+        <v>34722.241598000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.645067</v>
+        <v>9.6450669999999992</v>
       </c>
       <c r="BP26" s="1">
-        <v>1983.930000</v>
+        <v>1983.93</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1835.540000</v>
+        <v>-1835.54</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>34732.968050</v>
+        <v>34732.968050000003</v>
       </c>
       <c r="BT26" s="1">
         <v>9.648047</v>
       </c>
       <c r="BU26" s="1">
-        <v>2370.410000</v>
+        <v>2370.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2734.050000</v>
+        <v>-2734.05</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>34743.944548</v>
+        <v>34743.944547999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.651096</v>
+        <v>9.6510960000000008</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.630000</v>
+        <v>2853.63</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3710.810000</v>
+        <v>-3710.81</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>34757.163890</v>
+        <v>34757.163890000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.654768</v>
+        <v>9.6547680000000007</v>
       </c>
       <c r="CE26" s="1">
-        <v>4270.070000</v>
+        <v>4270.07</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6086.250000</v>
+        <v>-6086.25</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>